--- a/data/YIELD_LV.xlsx
+++ b/data/YIELD_LV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65627AB-5882-9346-9CF9-5EEAE8154A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC428E-8DBC-7445-8C93-0FC3BB127CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="1400" windowWidth="27240" windowHeight="17880" xr2:uid="{B2249A4F-5109-C145-A437-E2DC31518187}"/>
+    <workbookView xWindow="11160" yWindow="3720" windowWidth="27240" windowHeight="17880" xr2:uid="{B2249A4F-5109-C145-A437-E2DC31518187}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SOLAR - Annual prod MWh, MW</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>installed power</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,19 +97,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,19 +460,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515D34A8-24E4-3341-8497-6EDB0F5D2285}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -463,8 +483,11 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2020</v>
       </c>
@@ -475,9 +498,14 @@
         <v>795.8</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>2020</v>
+      </c>
+      <c r="G2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -488,9 +516,14 @@
         <v>805.85714285714289</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>2021</v>
+      </c>
+      <c r="G3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -501,9 +534,14 @@
         <v>207.50442477876106</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>2022</v>
+      </c>
+      <c r="G4">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2023</v>
       </c>
@@ -514,9 +552,14 @@
         <v>347.22379603399435</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
@@ -528,21 +571,42 @@
         <v>853.26609442060089</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>2024</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/data/YIELD_LV.xlsx
+++ b/data/YIELD_LV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC428E-8DBC-7445-8C93-0FC3BB127CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE41C8B9-8E8A-1143-B4DF-1DF5D206DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11160" yWindow="3720" windowWidth="27240" windowHeight="17880" xr2:uid="{B2249A4F-5109-C145-A437-E2DC31518187}"/>
   </bookViews>
@@ -74,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,19 +97,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -124,8 +111,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +450,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,30 +565,36 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>

--- a/data/YIELD_LV.xlsx
+++ b/data/YIELD_LV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineriksson/PycharmProjects/Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE41C8B9-8E8A-1143-B4DF-1DF5D206DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE6F7C3-3BA3-BC4E-8663-835F4BF66AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="3720" windowWidth="27240" windowHeight="17880" xr2:uid="{B2249A4F-5109-C145-A437-E2DC31518187}"/>
+    <workbookView xWindow="6960" yWindow="12240" windowWidth="27240" windowHeight="17880" xr2:uid="{B2249A4F-5109-C145-A437-E2DC31518187}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -111,8 +111,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +448,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,7 +480,7 @@
         <v>3063.7036032388664</v>
       </c>
       <c r="C2" s="3">
-        <v>795.8</v>
+        <v>600</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2">
@@ -500,7 +498,7 @@
         <v>2440.0698245614035</v>
       </c>
       <c r="C3" s="3">
-        <v>805.85714285714289</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3">
@@ -518,7 +516,7 @@
         <v>2037.0390092879256</v>
       </c>
       <c r="C4" s="3">
-        <v>207.50442477876106</v>
+        <v>665</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4">
@@ -536,7 +534,7 @@
         <v>2966.3991701882446</v>
       </c>
       <c r="C5" s="3">
-        <v>347.22379603399435</v>
+        <v>677</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5">
@@ -555,7 +553,7 @@
         <v>3066</v>
       </c>
       <c r="C6" s="3">
-        <v>853.26609442060089</v>
+        <v>1150</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6">
@@ -565,36 +563,30 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
